--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,49 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001_Study\Autowork_auth\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
-    <sheet name="4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Receipt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="1" r:id="rId1"/>
+    <sheet name="5" sheetId="2" r:id="rId2"/>
+    <sheet name="Receipt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>부서</t>
+  </si>
+  <si>
+    <t>위치</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>1주</t>
+  </si>
+  <si>
+    <t>2주</t>
+  </si>
+  <si>
+    <t>3주</t>
+  </si>
+  <si>
+    <t>4주</t>
+  </si>
+  <si>
+    <t>EV시스템검증팀</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>이상호</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>현대자동차(남양)</t>
+  </si>
+  <si>
+    <t>5주</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -70,26 +124,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -105,26 +139,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -145,103 +159,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,128 +456,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I29" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="18.25" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="15.375" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>부서</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>1월</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="n"/>
-      <c r="G1" s="6" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>1주</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>2주</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>3주</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>4주</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="n"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>EV시스템검증팀</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>이상호</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>현대자동차(남양)</t>
-        </is>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -640,141 +549,100 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="76"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="18.25" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="15.375" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>부서</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="6" t="n"/>
-      <c r="G1" s="6" t="n"/>
-      <c r="H1" s="6" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>1주</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>2주</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>3주</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>4주</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>5주</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="n"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>EV시스템검증팀</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>이상호</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>현대자동차(남양)</t>
-        </is>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -786,25 +654,24 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="76"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>